--- a/10_Java/学习笔记_Java基础_多线程.xlsx
+++ b/10_Java/学习笔记_Java基础_多线程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18945,7 +18945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22633,7 +22633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -22770,7 +22770,7 @@
   </sheetPr>
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A142" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -24970,7 +24970,7 @@
   </sheetPr>
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -25541,9 +25541,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:W279"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A289" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
